--- a/pages/Tableau de synthèse - Flavien Thaumur.xlsx
+++ b/pages/Tableau de synthèse - Flavien Thaumur.xlsx
@@ -34,13 +34,13 @@
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
   </si>
   <si>
-    <t xml:space="preserve">NOM et prénom : </t>
+    <t xml:space="preserve">NOM et prénom : Thaumur Flavien</t>
   </si>
   <si>
     <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
-    <t xml:space="preserve">Centre de formation :</t>
+    <t xml:space="preserve">Centre de formation : Greta - Appert</t>
   </si>
   <si>
     <t xml:space="preserve">Option :</t>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">▢ SLAM</t>
   </si>
   <si>
-    <t xml:space="preserve">Adresse URL du portfolio :</t>
+    <t xml:space="preserve">Adresse URL du portfolio : https://dragonir44.github.io/</t>
   </si>
   <si>
     <t xml:space="preserve">Compétences mises en œuvre
@@ -130,25 +130,7 @@
     <t xml:space="preserve">Mise en place d’un serveur DHCP (Windows/Linux)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Mise en place d’un serveur DNS </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(Windows/Linux)</t>
-    </r>
+    <t xml:space="preserve">Mise en place d’un serveur DNS (Windows/Linux)</t>
   </si>
   <si>
     <t xml:space="preserve">Mise en place d’un contrôleur de domaine (Windows)</t>
@@ -172,26 +154,8 @@
     <t xml:space="preserve">Gestion machine virtuel</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">17/01/22 
-Au 11/03</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/22</t>
-    </r>
+    <t xml:space="preserve">17/01/22 
+Au 11/03/22</t>
   </si>
   <si>
     <t xml:space="preserve">Mise en réseaux d’équipement</t>
@@ -271,6 +235,14 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="18"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <i val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
@@ -309,12 +281,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -648,75 +614,75 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -804,14 +770,14 @@
   </sheetPr>
   <dimension ref="A1:AMJ55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="70.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="18.66"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1024" min="9" style="3" width="11.52"/>
   </cols>
@@ -32858,6 +32824,9 @@
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="A33:H33"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" display="Adresse URL du portfolio : https://dragonir44.github.io/"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
